--- a/Code/Results/Cases/Case_4_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32940030817343</v>
+        <v>16.92782909523858</v>
       </c>
       <c r="C2">
-        <v>6.762186648576283</v>
+        <v>7.871687853525354</v>
       </c>
       <c r="D2">
-        <v>9.720822177666557</v>
+        <v>14.11080947616109</v>
       </c>
       <c r="E2">
-        <v>9.147302753549774</v>
+        <v>14.70496088750325</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.150785080138015</v>
+        <v>3.742298591950208</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.142386594220779</v>
+        <v>8.790875988560462</v>
       </c>
       <c r="K2">
-        <v>10.56467424966919</v>
+        <v>12.59469174907704</v>
       </c>
       <c r="L2">
-        <v>7.473343357137158</v>
+        <v>12.22736327229394</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.80861339288628</v>
+        <v>36.0929145026763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.53731724410184</v>
+        <v>16.79876423228349</v>
       </c>
       <c r="C3">
-        <v>6.724476439466207</v>
+        <v>7.854357191216713</v>
       </c>
       <c r="D3">
-        <v>9.497193664642952</v>
+        <v>14.10600833433263</v>
       </c>
       <c r="E3">
-        <v>9.09019198174167</v>
+        <v>14.72575277539706</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.157053771269184</v>
+        <v>3.744627015637752</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.171810915599657</v>
+        <v>8.802379848301793</v>
       </c>
       <c r="K3">
-        <v>9.880589946293654</v>
+        <v>12.50709371544188</v>
       </c>
       <c r="L3">
-        <v>7.354813305823839</v>
+        <v>12.23506672896719</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.73610679151501</v>
+        <v>36.1572123538184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.03347142338</v>
+        <v>16.72268098489688</v>
       </c>
       <c r="C4">
-        <v>6.701216360397215</v>
+        <v>7.843483876539338</v>
       </c>
       <c r="D4">
-        <v>9.362829698191897</v>
+        <v>14.10554292032484</v>
       </c>
       <c r="E4">
-        <v>9.059209150906755</v>
+        <v>14.7404468617251</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.161019786666321</v>
+        <v>3.746132803144115</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.190546914853413</v>
+        <v>8.809842448333043</v>
       </c>
       <c r="K4">
-        <v>9.437060176527121</v>
+        <v>12.45554804961841</v>
       </c>
       <c r="L4">
-        <v>7.284542420892621</v>
+        <v>12.24147353591535</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.70666689724491</v>
+        <v>36.20248435994559</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.82396262120903</v>
+        <v>16.69250194231486</v>
       </c>
       <c r="C5">
-        <v>6.691709873270178</v>
+        <v>7.83899504712196</v>
       </c>
       <c r="D5">
-        <v>9.308870563964062</v>
+        <v>14.10597899449291</v>
       </c>
       <c r="E5">
-        <v>9.047596338560625</v>
+        <v>14.74691990139023</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.162666193221074</v>
+        <v>3.746765628433608</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.198352934277453</v>
+        <v>8.812984196128172</v>
       </c>
       <c r="K5">
-        <v>9.250387366204182</v>
+        <v>12.43512554174196</v>
       </c>
       <c r="L5">
-        <v>7.25655510893985</v>
+        <v>12.2445067247442</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.69834173154145</v>
+        <v>36.22238822243487</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.78892806950075</v>
+        <v>16.68754144522325</v>
       </c>
       <c r="C6">
-        <v>6.690129618228344</v>
+        <v>7.838246200941315</v>
       </c>
       <c r="D6">
-        <v>9.299960316332898</v>
+        <v>14.106089234735</v>
       </c>
       <c r="E6">
-        <v>9.045728792121576</v>
+        <v>14.74802405082557</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.162941425835442</v>
+        <v>3.746871870333203</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.199659517879698</v>
+        <v>8.813511970462054</v>
       </c>
       <c r="K6">
-        <v>9.219031764108545</v>
+        <v>12.43177015007622</v>
       </c>
       <c r="L6">
-        <v>7.251947525169038</v>
+        <v>12.24503591195481</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.69717758694727</v>
+        <v>36.22578108346239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.03066255380959</v>
+        <v>16.72227059864837</v>
       </c>
       <c r="C7">
-        <v>6.701088266610728</v>
+        <v>7.843423572210662</v>
       </c>
       <c r="D7">
-        <v>9.36209869425463</v>
+        <v>14.10554626604975</v>
       </c>
       <c r="E7">
-        <v>9.059048454205792</v>
+        <v>14.74053219493672</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.161041867278262</v>
+        <v>3.746141259806059</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.190651493981159</v>
+        <v>8.809884411003708</v>
       </c>
       <c r="K7">
-        <v>9.434566679951931</v>
+        <v>12.45527023982082</v>
       </c>
       <c r="L7">
-        <v>7.284162324560474</v>
+        <v>12.24151273156311</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.70653991324298</v>
+        <v>36.20274690071813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.06003769462244</v>
+        <v>16.88268951772557</v>
       </c>
       <c r="C8">
-        <v>6.74920532512735</v>
+        <v>7.865760751085937</v>
       </c>
       <c r="D8">
-        <v>9.643136689520523</v>
+        <v>14.10863977518332</v>
       </c>
       <c r="E8">
-        <v>9.126755420039677</v>
+        <v>14.71173002650864</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.152922732202401</v>
+        <v>3.743085669975361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.152394797584173</v>
+        <v>8.794759849396753</v>
       </c>
       <c r="K8">
-        <v>10.33366428921566</v>
+        <v>12.56403505674272</v>
       </c>
       <c r="L8">
-        <v>7.43196505952671</v>
+        <v>12.22967184016906</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.7804114374526</v>
+        <v>36.11388123502358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.93250424851578</v>
+        <v>17.22098163926573</v>
       </c>
       <c r="C9">
-        <v>6.842796265071099</v>
+        <v>7.907699488013617</v>
       </c>
       <c r="D9">
-        <v>10.21525331911906</v>
+        <v>14.13432739308466</v>
       </c>
       <c r="E9">
-        <v>9.292506122557647</v>
+        <v>14.67052997717732</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.137891291899116</v>
+        <v>3.73769485763943</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.082559422172205</v>
+        <v>8.768254356749864</v>
       </c>
       <c r="K9">
-        <v>11.91161962240281</v>
+        <v>12.79419512527039</v>
       </c>
       <c r="L9">
-        <v>7.740871380726579</v>
+        <v>12.21972358867351</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.05025509464297</v>
+        <v>35.98564236215817</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.21200441098409</v>
+        <v>17.48204417441636</v>
       </c>
       <c r="C10">
-        <v>6.911224336088649</v>
+        <v>7.937347906227418</v>
       </c>
       <c r="D10">
-        <v>10.64538944996978</v>
+        <v>14.16504322700539</v>
       </c>
       <c r="E10">
-        <v>9.435132106383733</v>
+        <v>14.6495540449547</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.127333551424421</v>
+        <v>3.73409676277829</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.034229373407559</v>
+        <v>8.750684393751074</v>
       </c>
       <c r="K10">
-        <v>12.9602005866367</v>
+        <v>12.97232213130049</v>
       </c>
       <c r="L10">
-        <v>7.978348575444796</v>
+        <v>12.22045692317844</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.33196837891933</v>
+        <v>35.91956241484603</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.77231656156681</v>
+        <v>17.60309685027047</v>
       </c>
       <c r="C11">
-        <v>6.942319944539819</v>
+        <v>7.950577280849723</v>
       </c>
       <c r="D11">
-        <v>10.84263176979622</v>
+        <v>14.18155674008269</v>
       </c>
       <c r="E11">
-        <v>9.504691035390644</v>
+        <v>14.64202388037937</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.12262254683295</v>
+        <v>3.732537773426724</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.012846621863816</v>
+        <v>8.743100688437815</v>
       </c>
       <c r="K11">
-        <v>13.4137315237439</v>
+        <v>13.0550368923673</v>
       </c>
       <c r="L11">
-        <v>8.088446570430648</v>
+        <v>12.22252461749318</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.47979884603046</v>
+        <v>35.89562339008701</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.98132578941819</v>
+        <v>17.64922928697612</v>
       </c>
       <c r="C12">
-        <v>6.954094074566508</v>
+        <v>7.955549295319626</v>
       </c>
       <c r="D12">
-        <v>10.91750701696291</v>
+        <v>14.18817210390288</v>
       </c>
       <c r="E12">
-        <v>9.531715106830942</v>
+        <v>14.63946111216706</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.120850607416007</v>
+        <v>3.731958548476852</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.004832500048242</v>
+        <v>8.740287438008911</v>
       </c>
       <c r="K12">
-        <v>13.58214601537068</v>
+        <v>13.08657676856737</v>
       </c>
       <c r="L12">
-        <v>8.130418080365519</v>
+        <v>12.22355572811767</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.53873471885583</v>
+        <v>35.88743912331092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93645329785511</v>
+        <v>17.63928143538104</v>
       </c>
       <c r="C13">
-        <v>6.951558290163597</v>
+        <v>7.954480167403593</v>
       </c>
       <c r="D13">
-        <v>10.90137372398068</v>
+        <v>14.18673132031373</v>
       </c>
       <c r="E13">
-        <v>9.525864410123328</v>
+        <v>14.64000021799149</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.121231711598471</v>
+        <v>3.732082800811364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.006554850463174</v>
+        <v>8.740890722833567</v>
       </c>
       <c r="K13">
-        <v>13.54602214529727</v>
+        <v>13.07977480797788</v>
       </c>
       <c r="L13">
-        <v>8.121366582035701</v>
+        <v>12.22332264569303</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.52590835285369</v>
+        <v>35.88916256345096</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78957555232932</v>
+        <v>17.60688654870903</v>
       </c>
       <c r="C14">
-        <v>6.943288608605541</v>
+        <v>7.950987089635531</v>
       </c>
       <c r="D14">
-        <v>10.84878833715523</v>
+        <v>14.18209375393575</v>
       </c>
       <c r="E14">
-        <v>9.506900558305672</v>
+        <v>14.64180725655369</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.122476534567684</v>
+        <v>3.732489897497092</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.01218565210262</v>
+        <v>8.742868069078783</v>
       </c>
       <c r="K14">
-        <v>13.42765349262995</v>
+        <v>13.05762747761539</v>
       </c>
       <c r="L14">
-        <v>8.09189407889596</v>
+        <v>12.22260448238113</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.48458757443072</v>
+        <v>35.89493240727928</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.69919512032307</v>
+        <v>17.5870807097363</v>
       </c>
       <c r="C15">
-        <v>6.938223163487573</v>
+        <v>7.948842556509379</v>
       </c>
       <c r="D15">
-        <v>10.81660106231202</v>
+        <v>14.17930015759535</v>
       </c>
       <c r="E15">
-        <v>9.495374004672419</v>
+        <v>14.64295170464445</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.123240552881752</v>
+        <v>3.73274070379405</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.015645386494005</v>
+        <v>8.744086865545531</v>
       </c>
       <c r="K15">
-        <v>13.35471737667978</v>
+        <v>13.04408920213049</v>
       </c>
       <c r="L15">
-        <v>8.073877264112465</v>
+        <v>12.22219686048467</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.45966607687359</v>
+        <v>35.89858134253656</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.17494508807905</v>
+        <v>17.47417606369189</v>
       </c>
       <c r="C16">
-        <v>6.909191801238265</v>
+        <v>7.936478097001129</v>
       </c>
       <c r="D16">
-        <v>10.63252709228178</v>
+        <v>14.16401488121282</v>
       </c>
       <c r="E16">
-        <v>9.430681331277142</v>
+        <v>14.65008659642236</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.127643174296887</v>
+        <v>3.734200207061421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.035638612180708</v>
+        <v>8.75118821258725</v>
       </c>
       <c r="K16">
-        <v>12.93009290385864</v>
+        <v>12.96694831894519</v>
       </c>
       <c r="L16">
-        <v>7.971193485395046</v>
+        <v>12.220356585241</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.32271403504638</v>
+        <v>35.9212501250645</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.84772925529637</v>
+        <v>17.40547372641625</v>
       </c>
       <c r="C17">
-        <v>6.891376004724743</v>
+        <v>7.928826445576584</v>
       </c>
       <c r="D17">
-        <v>10.5199744087207</v>
+        <v>14.15528635331348</v>
       </c>
       <c r="E17">
-        <v>9.392200351217452</v>
+        <v>14.65497853296937</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.130366730424747</v>
+        <v>3.735115451065</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.048055697549933</v>
+        <v>8.755649207781808</v>
       </c>
       <c r="K17">
-        <v>12.66361998730658</v>
+        <v>12.92003879457408</v>
       </c>
       <c r="L17">
-        <v>7.908716984333918</v>
+        <v>12.219670929929</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.24382781174167</v>
+        <v>35.93672503101035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.65747824822088</v>
+        <v>17.36617615146292</v>
       </c>
       <c r="C18">
-        <v>6.881125505314273</v>
+        <v>7.924401183921427</v>
       </c>
       <c r="D18">
-        <v>10.45538716449958</v>
+        <v>14.15050529758358</v>
       </c>
       <c r="E18">
-        <v>9.370506748618453</v>
+        <v>14.65798165220072</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.131941960748867</v>
+        <v>3.735649201705691</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.055254647367735</v>
+        <v>8.758253563595531</v>
       </c>
       <c r="K18">
-        <v>12.50813924437418</v>
+        <v>12.89321766339185</v>
       </c>
       <c r="L18">
-        <v>7.872977805821638</v>
+        <v>12.21943986144407</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.20029914469879</v>
+        <v>35.94620190405283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59271294453468</v>
+        <v>17.35290927868404</v>
       </c>
       <c r="C19">
-        <v>6.877654191570158</v>
+        <v>7.922898721988787</v>
       </c>
       <c r="D19">
-        <v>10.43354618364705</v>
+        <v>14.14892772037307</v>
       </c>
       <c r="E19">
-        <v>9.363236841199535</v>
+        <v>14.65903100375058</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.132476837670195</v>
+        <v>3.735831180589828</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.057701979737755</v>
+        <v>8.759141976121427</v>
       </c>
       <c r="K19">
-        <v>12.45511473855509</v>
+        <v>12.88416471052176</v>
       </c>
       <c r="L19">
-        <v>7.860911303867005</v>
+        <v>12.21938970905714</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.18587406782703</v>
+        <v>35.94950953318509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.88277398071491</v>
+        <v>17.4127648958073</v>
       </c>
       <c r="C20">
-        <v>6.893272846625274</v>
+        <v>7.929643489324373</v>
       </c>
       <c r="D20">
-        <v>10.53194062386947</v>
+        <v>14.1561907697737</v>
       </c>
       <c r="E20">
-        <v>9.396251136778524</v>
+        <v>14.65443817898643</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.130075909748328</v>
+        <v>3.735017263929819</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.046728006916557</v>
+        <v>8.755170343641714</v>
       </c>
       <c r="K20">
-        <v>12.69221514404982</v>
+        <v>12.92501601250198</v>
       </c>
       <c r="L20">
-        <v>7.915347598800277</v>
+        <v>12.21972702659035</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.25203356479163</v>
+        <v>35.93501806894847</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83280334078524</v>
+        <v>17.6163940760223</v>
       </c>
       <c r="C21">
-        <v>6.94571761273963</v>
+        <v>7.95201411806005</v>
       </c>
       <c r="D21">
-        <v>10.86422925683151</v>
+        <v>14.18344612137618</v>
       </c>
       <c r="E21">
-        <v>9.512452060447959</v>
+        <v>14.64126865398896</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.122110583621153</v>
+        <v>3.732370021709057</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.010529524876688</v>
+        <v>8.742285688123426</v>
       </c>
       <c r="K21">
-        <v>13.46251115165795</v>
+        <v>13.06412697692246</v>
       </c>
       <c r="L21">
-        <v>8.100543405521874</v>
+        <v>12.22280870087252</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.49664326351952</v>
+        <v>35.89321375176905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43522714102636</v>
+        <v>17.75116441023096</v>
       </c>
       <c r="C22">
-        <v>6.979988998661732</v>
+        <v>7.966414820318904</v>
       </c>
       <c r="D22">
-        <v>11.08245547736626</v>
+        <v>14.20336765135882</v>
       </c>
       <c r="E22">
-        <v>9.592385913766693</v>
+        <v>14.63434430729717</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.116974207414007</v>
+        <v>3.730704746555981</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.98735402817305</v>
+        <v>8.73420587757454</v>
       </c>
       <c r="K22">
-        <v>13.94657197125492</v>
+        <v>13.15630078540035</v>
       </c>
       <c r="L22">
-        <v>8.223203629234696</v>
+        <v>12.22626833429929</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.67379708463788</v>
+        <v>35.87102706524466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.11540133370906</v>
+        <v>17.67909303303729</v>
       </c>
       <c r="C23">
-        <v>6.961696756953542</v>
+        <v>7.958749198949555</v>
       </c>
       <c r="D23">
-        <v>10.96589975584229</v>
+        <v>14.19254339095576</v>
       </c>
       <c r="E23">
-        <v>9.54935498593505</v>
+        <v>14.63788619804098</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.119709648847657</v>
+        <v>3.731587620242775</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.999680352651973</v>
+        <v>8.73848710763351</v>
       </c>
       <c r="K23">
-        <v>13.68997535459224</v>
+        <v>13.10699906528131</v>
       </c>
       <c r="L23">
-        <v>8.157594283349624</v>
+        <v>12.22429002933656</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.57762306691448</v>
+        <v>35.88239850335564</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.86693689216895</v>
+        <v>17.40946793131197</v>
       </c>
       <c r="C24">
-        <v>6.892415309461322</v>
+        <v>7.929274185495697</v>
       </c>
       <c r="D24">
-        <v>10.52653031849111</v>
+        <v>14.15578114434123</v>
       </c>
       <c r="E24">
-        <v>9.394418439265962</v>
+        <v>14.65468187903477</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.130207360341789</v>
+        <v>3.73506163076536</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.047328068064645</v>
+        <v>8.755386714528314</v>
       </c>
       <c r="K24">
-        <v>12.67929438489722</v>
+        <v>12.92276535008634</v>
       </c>
       <c r="L24">
-        <v>7.912349337862137</v>
+        <v>12.21970115708441</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.2483180717856</v>
+        <v>35.93578797937828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.44245731198785</v>
+        <v>17.12712226111092</v>
       </c>
       <c r="C25">
-        <v>6.817547149509287</v>
+        <v>7.896556374003863</v>
       </c>
       <c r="D25">
-        <v>10.05855263580754</v>
+        <v>14.12528861082651</v>
       </c>
       <c r="E25">
-        <v>9.244055777125411</v>
+        <v>14.68004178752694</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.141868046064061</v>
+        <v>3.739089265329104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.10091493979097</v>
+        <v>8.775089136423958</v>
       </c>
       <c r="K25">
-        <v>11.50436066035036</v>
+        <v>12.73025160565281</v>
       </c>
       <c r="L25">
-        <v>7.655377197972503</v>
+        <v>12.22099863616965</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.96312214617417</v>
+        <v>36.01539801130588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.92782909523858</v>
+        <v>14.32940030817345</v>
       </c>
       <c r="C2">
-        <v>7.871687853525354</v>
+        <v>6.762186648576413</v>
       </c>
       <c r="D2">
-        <v>14.11080947616109</v>
+        <v>9.720822177666676</v>
       </c>
       <c r="E2">
-        <v>14.70496088750325</v>
+        <v>9.14730275354977</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.742298591950208</v>
+        <v>2.150785080137881</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.790875988560462</v>
+        <v>5.142386594220746</v>
       </c>
       <c r="K2">
-        <v>12.59469174907704</v>
+        <v>10.56467424966921</v>
       </c>
       <c r="L2">
-        <v>12.22736327229394</v>
+        <v>7.473343357137159</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>36.0929145026763</v>
+        <v>24.80861339288637</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79876423228349</v>
+        <v>13.53731724410184</v>
       </c>
       <c r="C3">
-        <v>7.854357191216713</v>
+        <v>6.724476439465941</v>
       </c>
       <c r="D3">
-        <v>14.10600833433263</v>
+        <v>9.497193664642877</v>
       </c>
       <c r="E3">
-        <v>14.72575277539706</v>
+        <v>9.090191981741679</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.744627015637752</v>
+        <v>2.157053771268784</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.802379848301793</v>
+        <v>5.171810915599623</v>
       </c>
       <c r="K3">
-        <v>12.50709371544188</v>
+        <v>9.880589946293641</v>
       </c>
       <c r="L3">
-        <v>12.23506672896719</v>
+        <v>7.354813305823869</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>36.1572123538184</v>
+        <v>24.73610679151492</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.72268098489688</v>
+        <v>13.03347142337998</v>
       </c>
       <c r="C4">
-        <v>7.843483876539338</v>
+        <v>6.701216360397212</v>
       </c>
       <c r="D4">
-        <v>14.10554292032484</v>
+        <v>9.362829698191803</v>
       </c>
       <c r="E4">
-        <v>14.7404468617251</v>
+        <v>9.059209150906701</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.746132803144115</v>
+        <v>2.161019786666322</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.809842448333043</v>
+        <v>5.190546914853378</v>
       </c>
       <c r="K4">
-        <v>12.45554804961841</v>
+        <v>9.437060176527112</v>
       </c>
       <c r="L4">
-        <v>12.24147353591535</v>
+        <v>7.284542420892621</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>36.20248435994559</v>
+        <v>24.70666689724484</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.69250194231486</v>
+        <v>12.82396262120896</v>
       </c>
       <c r="C5">
-        <v>7.83899504712196</v>
+        <v>6.691709873270307</v>
       </c>
       <c r="D5">
-        <v>14.10597899449291</v>
+        <v>9.308870563964215</v>
       </c>
       <c r="E5">
-        <v>14.74691990139023</v>
+        <v>9.047596338560677</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.746765628433608</v>
+        <v>2.162666193221209</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.812984196128172</v>
+        <v>5.198352934277488</v>
       </c>
       <c r="K5">
-        <v>12.43512554174196</v>
+        <v>9.250387366204231</v>
       </c>
       <c r="L5">
-        <v>12.2445067247442</v>
+        <v>7.256555108939924</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>36.22238822243487</v>
+        <v>24.69834173154128</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.68754144522325</v>
+        <v>12.78892806950072</v>
       </c>
       <c r="C6">
-        <v>7.838246200941315</v>
+        <v>6.690129618228211</v>
       </c>
       <c r="D6">
-        <v>14.106089234735</v>
+        <v>9.29996031633299</v>
       </c>
       <c r="E6">
-        <v>14.74802405082557</v>
+        <v>9.045728792121627</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.746871870333203</v>
+        <v>2.162941425835443</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.813511970462054</v>
+        <v>5.199659517879697</v>
       </c>
       <c r="K6">
-        <v>12.43177015007622</v>
+        <v>9.219031764108559</v>
       </c>
       <c r="L6">
-        <v>12.24503591195481</v>
+        <v>7.251947525169114</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>36.22578108346239</v>
+        <v>24.69717758694722</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.72227059864837</v>
+        <v>13.03066255380959</v>
       </c>
       <c r="C7">
-        <v>7.843423572210662</v>
+        <v>6.701088266610467</v>
       </c>
       <c r="D7">
-        <v>14.10554626604975</v>
+        <v>9.362098694254547</v>
       </c>
       <c r="E7">
-        <v>14.74053219493672</v>
+        <v>9.059048454205641</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.746141259806059</v>
+        <v>2.16104186727813</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.809884411003708</v>
+        <v>5.190651493981192</v>
       </c>
       <c r="K7">
-        <v>12.45527023982082</v>
+        <v>9.434566679951899</v>
       </c>
       <c r="L7">
-        <v>12.24151273156311</v>
+        <v>7.284162324560489</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>36.20274690071813</v>
+        <v>24.70653991324286</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.88268951772557</v>
+        <v>14.06003769462239</v>
       </c>
       <c r="C8">
-        <v>7.865760751085937</v>
+        <v>6.749205325127607</v>
       </c>
       <c r="D8">
-        <v>14.10863977518332</v>
+        <v>9.643136689520608</v>
       </c>
       <c r="E8">
-        <v>14.71173002650864</v>
+        <v>9.126755420039737</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.743085669975361</v>
+        <v>2.152922732202271</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.794759849396753</v>
+        <v>5.152394797584106</v>
       </c>
       <c r="K8">
-        <v>12.56403505674272</v>
+        <v>10.33366428921578</v>
       </c>
       <c r="L8">
-        <v>12.22967184016906</v>
+        <v>7.43196505952664</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>36.11388123502358</v>
+        <v>24.78041143745219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.22098163926573</v>
+        <v>15.93250424851578</v>
       </c>
       <c r="C9">
-        <v>7.907699488013617</v>
+        <v>6.842796265071097</v>
       </c>
       <c r="D9">
-        <v>14.13432739308466</v>
+        <v>10.21525331911894</v>
       </c>
       <c r="E9">
-        <v>14.67052997717732</v>
+        <v>9.292506122557644</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.73769485763943</v>
+        <v>2.137891291898985</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.768254356749864</v>
+        <v>5.082559422172336</v>
       </c>
       <c r="K9">
-        <v>12.79419512527039</v>
+        <v>11.91161962240284</v>
       </c>
       <c r="L9">
-        <v>12.21972358867351</v>
+        <v>7.740871380726573</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>35.98564236215817</v>
+        <v>25.05025509464284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.48204417441636</v>
+        <v>17.21200441098408</v>
       </c>
       <c r="C10">
-        <v>7.937347906227418</v>
+        <v>6.911224336088642</v>
       </c>
       <c r="D10">
-        <v>14.16504322700539</v>
+        <v>10.64538944996979</v>
       </c>
       <c r="E10">
-        <v>14.6495540449547</v>
+        <v>9.435132106383728</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.73409676277829</v>
+        <v>2.127333551424686</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.750684393751074</v>
+        <v>5.034229373407491</v>
       </c>
       <c r="K10">
-        <v>12.97232213130049</v>
+        <v>12.96020058663667</v>
       </c>
       <c r="L10">
-        <v>12.22045692317844</v>
+        <v>7.978348575444786</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.91956241484603</v>
+        <v>25.33196837891932</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.60309685027047</v>
+        <v>17.77231656156682</v>
       </c>
       <c r="C11">
-        <v>7.950577280849723</v>
+        <v>6.942319944539813</v>
       </c>
       <c r="D11">
-        <v>14.18155674008269</v>
+        <v>10.84263176979617</v>
       </c>
       <c r="E11">
-        <v>14.64202388037937</v>
+        <v>9.504691035390605</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.732537773426724</v>
+        <v>2.122622546833083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.743100688437815</v>
+        <v>5.012846621863785</v>
       </c>
       <c r="K11">
-        <v>13.0550368923673</v>
+        <v>13.41373152374394</v>
       </c>
       <c r="L11">
-        <v>12.22252461749318</v>
+        <v>8.088446570430619</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.89562339008701</v>
+        <v>25.4797988460303</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.64922928697612</v>
+        <v>17.98132578941819</v>
       </c>
       <c r="C12">
-        <v>7.955549295319626</v>
+        <v>6.95409407456664</v>
       </c>
       <c r="D12">
-        <v>14.18817210390288</v>
+        <v>10.91750701696294</v>
       </c>
       <c r="E12">
-        <v>14.63946111216706</v>
+        <v>9.531715106830843</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.731958548476852</v>
+        <v>2.12085060741614</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.740287438008911</v>
+        <v>5.004832500048204</v>
       </c>
       <c r="K12">
-        <v>13.08657676856737</v>
+        <v>13.58214601537066</v>
       </c>
       <c r="L12">
-        <v>12.22355572811767</v>
+        <v>8.130418080365468</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.88743912331092</v>
+        <v>25.53873471885585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.63928143538104</v>
+        <v>17.93645329785511</v>
       </c>
       <c r="C13">
-        <v>7.954480167403593</v>
+        <v>6.951558290163716</v>
       </c>
       <c r="D13">
-        <v>14.18673132031373</v>
+        <v>10.90137372398064</v>
       </c>
       <c r="E13">
-        <v>14.64000021799149</v>
+        <v>9.52586441012328</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.732082800811364</v>
+        <v>2.121231711598474</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.740890722833567</v>
+        <v>5.006554850463271</v>
       </c>
       <c r="K13">
-        <v>13.07977480797788</v>
+        <v>13.54602214529728</v>
       </c>
       <c r="L13">
-        <v>12.22332264569303</v>
+        <v>8.121366582035701</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.88916256345096</v>
+        <v>25.52590835285384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.60688654870903</v>
+        <v>17.78957555232931</v>
       </c>
       <c r="C14">
-        <v>7.950987089635531</v>
+        <v>6.943288608605146</v>
       </c>
       <c r="D14">
-        <v>14.18209375393575</v>
+        <v>10.84878833715513</v>
       </c>
       <c r="E14">
-        <v>14.64180725655369</v>
+        <v>9.506900558305652</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.732489897497092</v>
+        <v>2.12247653456742</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.742868069078783</v>
+        <v>5.012185652102655</v>
       </c>
       <c r="K14">
-        <v>13.05762747761539</v>
+        <v>13.42765349262995</v>
       </c>
       <c r="L14">
-        <v>12.22260448238113</v>
+        <v>8.091894078895994</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.89493240727928</v>
+        <v>25.48458757443064</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.5870807097363</v>
+        <v>17.69919512032307</v>
       </c>
       <c r="C15">
-        <v>7.948842556509379</v>
+        <v>6.93822316348745</v>
       </c>
       <c r="D15">
-        <v>14.17930015759535</v>
+        <v>10.81660106231201</v>
       </c>
       <c r="E15">
-        <v>14.64295170464445</v>
+        <v>9.495374004672327</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.73274070379405</v>
+        <v>2.123240552881749</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.744086865545531</v>
+        <v>5.015645386493905</v>
       </c>
       <c r="K15">
-        <v>13.04408920213049</v>
+        <v>13.35471737667973</v>
       </c>
       <c r="L15">
-        <v>12.22219686048467</v>
+        <v>8.073877264112449</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.89858134253656</v>
+        <v>25.45966607687364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.47417606369189</v>
+        <v>17.17494508807906</v>
       </c>
       <c r="C16">
-        <v>7.936478097001129</v>
+        <v>6.909191801237996</v>
       </c>
       <c r="D16">
-        <v>14.16401488121282</v>
+        <v>10.6325270922818</v>
       </c>
       <c r="E16">
-        <v>14.65008659642236</v>
+        <v>9.430681331277095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.734200207061421</v>
+        <v>2.127643174296754</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.75118821258725</v>
+        <v>5.035638612180577</v>
       </c>
       <c r="K16">
-        <v>12.96694831894519</v>
+        <v>12.9300929038586</v>
       </c>
       <c r="L16">
-        <v>12.220356585241</v>
+        <v>7.971193485395007</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.9212501250645</v>
+        <v>25.3227140350465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.40547372641625</v>
+        <v>16.84772925529636</v>
       </c>
       <c r="C17">
-        <v>7.928826445576584</v>
+        <v>6.891376004724996</v>
       </c>
       <c r="D17">
-        <v>14.15528635331348</v>
+        <v>10.51997440872062</v>
       </c>
       <c r="E17">
-        <v>14.65497853296937</v>
+        <v>9.392200351217321</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.735115451065</v>
+        <v>2.130366730424614</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.755649207781808</v>
+        <v>5.048055697549807</v>
       </c>
       <c r="K17">
-        <v>12.92003879457408</v>
+        <v>12.66361998730662</v>
       </c>
       <c r="L17">
-        <v>12.219670929929</v>
+        <v>7.908716984333786</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.93672503101035</v>
+        <v>25.2438278117415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.36617615146292</v>
+        <v>16.65747824822086</v>
       </c>
       <c r="C18">
-        <v>7.924401183921427</v>
+        <v>6.88112550531427</v>
       </c>
       <c r="D18">
-        <v>14.15050529758358</v>
+        <v>10.45538716449955</v>
       </c>
       <c r="E18">
-        <v>14.65798165220072</v>
+        <v>9.370506748618453</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.735649201705691</v>
+        <v>2.13194196074887</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.758253563595531</v>
+        <v>5.055254647367737</v>
       </c>
       <c r="K18">
-        <v>12.89321766339185</v>
+        <v>12.50813924437427</v>
       </c>
       <c r="L18">
-        <v>12.21943986144407</v>
+        <v>7.872977805821632</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.94620190405283</v>
+        <v>25.20029914469856</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.35290927868404</v>
+        <v>16.59271294453465</v>
       </c>
       <c r="C19">
-        <v>7.922898721988787</v>
+        <v>6.877654191570291</v>
       </c>
       <c r="D19">
-        <v>14.14892772037307</v>
+        <v>10.43354618364698</v>
       </c>
       <c r="E19">
-        <v>14.65903100375058</v>
+        <v>9.363236841199523</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.735831180589828</v>
+        <v>2.132476837670195</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.759141976121427</v>
+        <v>5.05770197973782</v>
       </c>
       <c r="K19">
-        <v>12.88416471052176</v>
+        <v>12.45511473855514</v>
       </c>
       <c r="L19">
-        <v>12.21938970905714</v>
+        <v>7.86091130386703</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.94950953318509</v>
+        <v>25.18587406782677</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.4127648958073</v>
+        <v>16.88277398071491</v>
       </c>
       <c r="C20">
-        <v>7.929643489324373</v>
+        <v>6.89327284662528</v>
       </c>
       <c r="D20">
-        <v>14.1561907697737</v>
+        <v>10.53194062386952</v>
       </c>
       <c r="E20">
-        <v>14.65443817898643</v>
+        <v>9.396251136778558</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.735017263929819</v>
+        <v>2.130075909748192</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.755170343641714</v>
+        <v>5.046728006916559</v>
       </c>
       <c r="K20">
-        <v>12.92501601250198</v>
+        <v>12.69221514404978</v>
       </c>
       <c r="L20">
-        <v>12.21972702659035</v>
+        <v>7.915347598800294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.93501806894847</v>
+        <v>25.25203356479175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.6163940760223</v>
+        <v>17.83280334078524</v>
       </c>
       <c r="C21">
-        <v>7.95201411806005</v>
+        <v>6.945717612739484</v>
       </c>
       <c r="D21">
-        <v>14.18344612137618</v>
+        <v>10.86422925683157</v>
       </c>
       <c r="E21">
-        <v>14.64126865398896</v>
+        <v>9.512452060447938</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.732370021709057</v>
+        <v>2.122110583621017</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.742285688123426</v>
+        <v>5.010529524876758</v>
       </c>
       <c r="K21">
-        <v>13.06412697692246</v>
+        <v>13.46251115165789</v>
       </c>
       <c r="L21">
-        <v>12.22280870087252</v>
+        <v>8.100543405521853</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.89321375176905</v>
+        <v>25.49664326351979</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.75116441023096</v>
+        <v>18.43522714102635</v>
       </c>
       <c r="C22">
-        <v>7.966414820318904</v>
+        <v>6.979988998661225</v>
       </c>
       <c r="D22">
-        <v>14.20336765135882</v>
+        <v>11.08245547736625</v>
       </c>
       <c r="E22">
-        <v>14.63434430729717</v>
+        <v>9.592385913766629</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.730704746555981</v>
+        <v>2.116974207413875</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.73420587757454</v>
+        <v>4.987354028173018</v>
       </c>
       <c r="K22">
-        <v>13.15630078540035</v>
+        <v>13.94657197125493</v>
       </c>
       <c r="L22">
-        <v>12.22626833429929</v>
+        <v>8.223203629234762</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.87102706524466</v>
+        <v>25.67379708463776</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.67909303303729</v>
+        <v>18.11540133370906</v>
       </c>
       <c r="C23">
-        <v>7.958749198949555</v>
+        <v>6.961696756953415</v>
       </c>
       <c r="D23">
-        <v>14.19254339095576</v>
+        <v>10.96589975584232</v>
       </c>
       <c r="E23">
-        <v>14.63788619804098</v>
+        <v>9.549354985935182</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.731587620242775</v>
+        <v>2.119709648847925</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.73848710763351</v>
+        <v>4.999680352652066</v>
       </c>
       <c r="K23">
-        <v>13.10699906528131</v>
+        <v>13.68997535459227</v>
       </c>
       <c r="L23">
-        <v>12.22429002933656</v>
+        <v>8.157594283349717</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.88239850335564</v>
+        <v>25.57762306691435</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.40946793131197</v>
+        <v>16.86693689216894</v>
       </c>
       <c r="C24">
-        <v>7.929274185495697</v>
+        <v>6.892415309461189</v>
       </c>
       <c r="D24">
-        <v>14.15578114434123</v>
+        <v>10.52653031849112</v>
       </c>
       <c r="E24">
-        <v>14.65468187903477</v>
+        <v>9.394418439265916</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.73506163076536</v>
+        <v>2.130207360341657</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.755386714528314</v>
+        <v>5.047328068064676</v>
       </c>
       <c r="K24">
-        <v>12.92276535008634</v>
+        <v>12.67929438489718</v>
       </c>
       <c r="L24">
-        <v>12.21970115708441</v>
+        <v>7.912349337862147</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.93578797937828</v>
+        <v>25.24831807178575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.12712226111092</v>
+        <v>15.44245731198785</v>
       </c>
       <c r="C25">
-        <v>7.896556374003863</v>
+        <v>6.817547149509286</v>
       </c>
       <c r="D25">
-        <v>14.12528861082651</v>
+        <v>10.05855263580758</v>
       </c>
       <c r="E25">
-        <v>14.68004178752694</v>
+        <v>9.244055777125409</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.739089265329104</v>
+        <v>2.141868046063659</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.775089136423958</v>
+        <v>5.100914939790938</v>
       </c>
       <c r="K25">
-        <v>12.73025160565281</v>
+        <v>11.50436066035035</v>
       </c>
       <c r="L25">
-        <v>12.22099863616965</v>
+        <v>7.65537719797253</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>36.01539801130588</v>
+        <v>24.96312214617424</v>
       </c>
     </row>
   </sheetData>
